--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Notes\Web development\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CADA29-A11A-47FB-AB9A-A626E176EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19470" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -39,46 +28,381 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -86,28 +410,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -156,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -191,7 +797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -365,36 +971,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -404,9 +1005,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://mui.com/material-ui/customization/how-to-customize/" xr:uid="{E6476179-E7FB-4F3E-95D9-07BAF331078F}"/>
+    <hyperlink ref="B2" r:id="rId1" display="How to customize - Material UI (mui.com)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Materail UI</t>
-  </si>
-  <si>
-    <t>How to Customize Components</t>
+    <t>Materail UI - How to Customize Components</t>
   </si>
   <si>
     <t>How to customize - Material UI (mui.com)</t>
+  </si>
+  <si>
+    <t>Web Vitals</t>
+  </si>
+  <si>
+    <t>https://web.dev/vitals/</t>
   </si>
 </sst>
 </file>
@@ -30,12 +33,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +68,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -73,138 +181,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,187 +213,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,11 +407,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,16 +456,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,180 +504,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,35 +974,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="41.3" customWidth="1"/>
     <col min="2" max="2" width="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="How to customize - Material UI (mui.com)"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://web.dev/vitals/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Materail UI - How to Customize Components</t>
+    <t>Material UI</t>
+  </si>
+  <si>
+    <t>How to Customize Components</t>
   </si>
   <si>
     <t>How to customize - Material UI (mui.com)</t>
@@ -27,24 +30,39 @@
   <si>
     <t>https://web.dev/vitals/</t>
   </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>JIT(Just In Time Compiler)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d7KHAVaX_Rs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -69,7 +87,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,22 +214,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -107,98 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,13 +238,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,169 +322,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +429,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,8 +489,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,17 +504,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,192 +529,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,42 +1003,66 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="41.3" customWidth="1"/>
     <col min="2" max="2" width="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="How to customize - Material UI (mui.com)"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://web.dev/vitals/"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://web.dev/vitals/"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://www.youtube.com/watch?v=d7KHAVaX_Rs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Material UI</t>
   </si>
@@ -39,16 +39,22 @@
   <si>
     <t>https://www.youtube.com/watch?v=d7KHAVaX_Rs</t>
   </si>
+  <si>
+    <t>Code Spliting &amp; Tree shaking</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/advice/0/how-do-you-compare-tree-shaking-other-code/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -94,36 +100,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,8 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,62 +147,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,17 +169,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +244,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,19 +280,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,145 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,30 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,26 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +467,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,145 +511,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,13 +1009,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="41.3" customWidth="1"/>
     <col min="2" max="2" width="105" customWidth="1"/>
@@ -1058,11 +1064,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="How to customize - Material UI (mui.com)"/>
     <hyperlink ref="B4" r:id="rId2" display="https://web.dev/vitals/"/>
     <hyperlink ref="B7" r:id="rId3" display="https://www.youtube.com/watch?v=d7KHAVaX_Rs"/>
+    <hyperlink ref="B11" r:id="rId4" display="https://www.linkedin.com/advice/0/how-do-you-compare-tree-shaking-other-code/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Material UI</t>
   </si>
@@ -22,7 +22,7 @@
     <t>How to Customize Components</t>
   </si>
   <si>
-    <t>How to customize - Material UI (mui.com)</t>
+    <t>https://mui.com/material-ui/customization/how-to-customize/</t>
   </si>
   <si>
     <t>Web Vitals</t>
@@ -40,10 +40,16 @@
     <t>https://www.youtube.com/watch?v=d7KHAVaX_Rs</t>
   </si>
   <si>
-    <t>Code Spliting &amp; Tree shaking</t>
+    <t>Code Spliting, Tree shaking &amp; Minification</t>
   </si>
   <si>
     <t>https://www.linkedin.com/advice/0/how-do-you-compare-tree-shaking-other-code/</t>
+  </si>
+  <si>
+    <t>Atomic Design</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yi-A20x2dcA</t>
   </si>
 </sst>
 </file>
@@ -51,12 +57,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +73,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -79,51 +86,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,16 +114,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -161,11 +145,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,6 +206,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,44 +228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,37 +244,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,139 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,21 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,11 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,26 +479,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,158 +538,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,10 +1008,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1021,11 +1020,10 @@
     <col min="2" max="2" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
@@ -1037,30 +1035,34 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1068,16 +1070,25 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="How to customize - Material UI (mui.com)"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://web.dev/vitals/"/>
-    <hyperlink ref="B7" r:id="rId3" display="https://www.youtube.com/watch?v=d7KHAVaX_Rs"/>
-    <hyperlink ref="B11" r:id="rId4" display="https://www.linkedin.com/advice/0/how-do-you-compare-tree-shaking-other-code/"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://web.dev/vitals/"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://www.youtube.com/watch?v=d7KHAVaX_Rs"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.linkedin.com/advice/0/how-do-you-compare-tree-shaking-other-code/"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://mui.com/material-ui/customization/how-to-customize/"/>
+    <hyperlink ref="B13" r:id="rId5" display="https://www.youtube.com/watch?v=Yi-A20x2dcA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Material UI</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Yi-A20x2dcA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dns-prefetch and preconnect </t>
+  </si>
+  <si>
+    <t>https://medium.com/expedia-group-tech/dns-prefetch-preconnect-7-tips-tricks-and-pitfalls-82d633c7f210</t>
   </si>
 </sst>
 </file>
@@ -57,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -106,6 +112,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -114,6 +135,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -126,6 +155,81 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,104 +240,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,43 +250,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,139 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +441,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,17 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,25 +492,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -520,160 +541,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,10 +1014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1082,6 +1088,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="https://web.dev/vitals/"/>
@@ -1089,6 +1103,7 @@
     <hyperlink ref="B11" r:id="rId3" display="https://www.linkedin.com/advice/0/how-do-you-compare-tree-shaking-other-code/"/>
     <hyperlink ref="B2" r:id="rId4" display="https://mui.com/material-ui/customization/how-to-customize/"/>
     <hyperlink ref="B13" r:id="rId5" display="https://www.youtube.com/watch?v=Yi-A20x2dcA"/>
+    <hyperlink ref="B15" r:id="rId6" display="https://medium.com/expedia-group-tech/dns-prefetch-preconnect-7-tips-tricks-and-pitfalls-82d633c7f210"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Material UI</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>https://medium.com/expedia-group-tech/dns-prefetch-preconnect-7-tips-tricks-and-pitfalls-82d633c7f210</t>
+  </si>
+  <si>
+    <t>Roundtrip to server from client</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlkDbnbv7dk</t>
+  </si>
+  <si>
+    <t>JavaScript Visualizer</t>
+  </si>
+  <si>
+    <t>https://www.jsv9000.app/</t>
   </si>
 </sst>
 </file>
@@ -64,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -106,14 +118,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,9 +157,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,9 +216,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,21 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,74 +250,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,187 +262,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,31 +475,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,11 +512,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,145 +542,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,10 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1096,6 +1108,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="https://web.dev/vitals/"/>
@@ -1104,6 +1132,8 @@
     <hyperlink ref="B2" r:id="rId4" display="https://mui.com/material-ui/customization/how-to-customize/"/>
     <hyperlink ref="B13" r:id="rId5" display="https://www.youtube.com/watch?v=Yi-A20x2dcA"/>
     <hyperlink ref="B15" r:id="rId6" display="https://medium.com/expedia-group-tech/dns-prefetch-preconnect-7-tips-tricks-and-pitfalls-82d633c7f210"/>
+    <hyperlink ref="B17" r:id="rId7" display="https://www.youtube.com/watch?v=AlkDbnbv7dk"/>
+    <hyperlink ref="B19" r:id="rId8" display="https://www.jsv9000.app/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Material UI</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>https://www.jsv9000.app/</t>
+  </si>
+  <si>
+    <t>Javascript Sort</t>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/news/how-does-the-javascript-sort-function-work/</t>
+  </si>
+  <si>
+    <t>Javascript  Debounce Throttle</t>
+  </si>
+  <si>
+    <t>https://medium.com/@bs903944/debounce-and-throttling-what-they-are-and-when-to-use-them-eadd272fe0be</t>
   </si>
 </sst>
 </file>
@@ -75,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -117,13 +129,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -132,53 +137,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,9 +161,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,16 +198,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,24 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,19 +274,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,31 +412,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,109 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,22 +487,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +511,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,142 +568,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1124,6 +1136,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" display="https://web.dev/vitals/"/>
@@ -1134,6 +1162,8 @@
     <hyperlink ref="B15" r:id="rId6" display="https://medium.com/expedia-group-tech/dns-prefetch-preconnect-7-tips-tricks-and-pitfalls-82d633c7f210"/>
     <hyperlink ref="B17" r:id="rId7" display="https://www.youtube.com/watch?v=AlkDbnbv7dk"/>
     <hyperlink ref="B19" r:id="rId8" display="https://www.jsv9000.app/"/>
+    <hyperlink ref="B23" r:id="rId9" display="https://medium.com/@bs903944/debounce-and-throttling-what-they-are-and-when-to-use-them-eadd272fe0be"/>
+    <hyperlink ref="B21" r:id="rId10" display="https://www.freecodecamp.org/news/how-does-the-javascript-sort-function-work/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Material UI</t>
   </si>
@@ -31,9 +31,6 @@
     <t>https://web.dev/vitals/</t>
   </si>
   <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
     <t>JIT(Just In Time Compiler)</t>
   </si>
   <si>
@@ -80,6 +77,18 @@
   </si>
   <si>
     <t>https://medium.com/@bs903944/debounce-and-throttling-what-they-are-and-when-to-use-them-eadd272fe0be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React Overview </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wIyHSOugGGw&amp;t=620s</t>
+  </si>
+  <si>
+    <t>React Hooks Overview</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LOH1l-MP_9k&amp;t=2s</t>
   </si>
 </sst>
 </file>
@@ -87,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -138,6 +147,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -145,9 +192,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,110 +273,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -280,13 +289,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,25 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,133 +451,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,21 +497,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,15 +542,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -565,145 +550,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1084,72 +1093,86 @@
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1164,6 +1187,8 @@
     <hyperlink ref="B19" r:id="rId8" display="https://www.jsv9000.app/"/>
     <hyperlink ref="B23" r:id="rId9" display="https://medium.com/@bs903944/debounce-and-throttling-what-they-are-and-when-to-use-them-eadd272fe0be"/>
     <hyperlink ref="B21" r:id="rId10" display="https://www.freecodecamp.org/news/how-does-the-javascript-sort-function-work/"/>
+    <hyperlink ref="B26" r:id="rId11" display="https://www.youtube.com/watch?v=wIyHSOugGGw&amp;t=620s"/>
+    <hyperlink ref="B27" r:id="rId12" display="https://www.youtube.com/watch?v=LOH1l-MP_9k&amp;t=2s"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Web Dev/Articles.xlsx
+++ b/Web Dev/Articles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Material UI</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AlkDbnbv7dk</t>
-  </si>
-  <si>
-    <t>JavaScript Visualizer</t>
-  </si>
-  <si>
-    <t>https://www.jsv9000.app/</t>
   </si>
   <si>
     <t>Javascript Sort</t>
@@ -96,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -138,9 +132,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +178,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -162,61 +246,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,51 +265,6 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,175 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -540,17 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,6 +542,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -577,142 +571,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,10 +1041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1135,27 +1129,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1165,14 +1159,6 @@
       </c>
       <c r="B26" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1184,11 +1170,10 @@
     <hyperlink ref="B13" r:id="rId5" display="https://www.youtube.com/watch?v=Yi-A20x2dcA"/>
     <hyperlink ref="B15" r:id="rId6" display="https://medium.com/expedia-group-tech/dns-prefetch-preconnect-7-tips-tricks-and-pitfalls-82d633c7f210"/>
     <hyperlink ref="B17" r:id="rId7" display="https://www.youtube.com/watch?v=AlkDbnbv7dk"/>
-    <hyperlink ref="B19" r:id="rId8" display="https://www.jsv9000.app/"/>
-    <hyperlink ref="B23" r:id="rId9" display="https://medium.com/@bs903944/debounce-and-throttling-what-they-are-and-when-to-use-them-eadd272fe0be"/>
-    <hyperlink ref="B21" r:id="rId10" display="https://www.freecodecamp.org/news/how-does-the-javascript-sort-function-work/"/>
-    <hyperlink ref="B26" r:id="rId11" display="https://www.youtube.com/watch?v=wIyHSOugGGw&amp;t=620s"/>
-    <hyperlink ref="B27" r:id="rId12" display="https://www.youtube.com/watch?v=LOH1l-MP_9k&amp;t=2s"/>
+    <hyperlink ref="B22" r:id="rId8" display="https://medium.com/@bs903944/debounce-and-throttling-what-they-are-and-when-to-use-them-eadd272fe0be"/>
+    <hyperlink ref="B20" r:id="rId9" display="https://www.freecodecamp.org/news/how-does-the-javascript-sort-function-work/"/>
+    <hyperlink ref="B25" r:id="rId10" display="https://www.youtube.com/watch?v=wIyHSOugGGw&amp;t=620s"/>
+    <hyperlink ref="B26" r:id="rId11" display="https://www.youtube.com/watch?v=LOH1l-MP_9k&amp;t=2s"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
